--- a/biology/Zoologie/Acomys_cahirinus/Acomys_cahirinus.xlsx
+++ b/biology/Zoologie/Acomys_cahirinus/Acomys_cahirinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rat épineux du Caire, Rat épineux d'Égypte, rat épineux
 Le Rat épineux du Caire (Acomys cahirinus) est une espèce de la famille des Muridés. Ce rat épineux vit sous un climat légèrement désertique et se trouve en Afrique, en Asie et dans le sud de l'Europe. C'est un rongeur très sociable qui vit en groupe.
@@ -512,9 +524,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En français, l'espèce porte le nom de Rat épineux du Caire[1],[2], Rat épineux d'Égypte[1] ou encore souris épineuse égyptienne[3] et plus simplement rat épineux[3],[4],[5] ou souris épineuse[3] comme d'autres espèces comparables.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En français, l'espèce porte le nom de Rat épineux du Caire Rat épineux d'Égypte ou encore souris épineuse égyptienne et plus simplement rat épineux ou souris épineuse comme d'autres espèces comparables.
 </t>
         </is>
       </c>
@@ -543,15 +557,11 @@
           <t>Description de l'espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Même si ces poils ne sont pas de véritables épines, ils irritent tout de même la gorge des prédateurs qui évitent par la suite d'en manger.
-Habitat et comportement
-Grégaires, les individus vivent en groupe. L'espèce est active principalement la nuit, tôt le matin et tard en après-midi.
-Elle se nourrit de graines et d'herbes principalement, mais peut intégrer à son menu quelques insectes afin de combler son besoin en protéines.
-On la rencontre sous un climat légèrement désertique, en Afrique, en Asie et dans le sud de l'Europe.
-Reproduction
-Les portées ne dépassent jamais cinq petits, la moyenne étant de deux à trois jeunes[6].
 </t>
         </is>
       </c>
@@ -577,10 +587,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description de l'espèce</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat et comportement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grégaires, les individus vivent en groupe. L'espèce est active principalement la nuit, tôt le matin et tard en après-midi.
+Elle se nourrit de graines et d'herbes principalement, mais peut intégrer à son menu quelques insectes afin de combler son besoin en protéines.
+On la rencontre sous un climat légèrement désertique, en Afrique, en Asie et dans le sud de l'Europe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acomys_cahirinus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acomys_cahirinus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description de l'espèce</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les portées ne dépassent jamais cinq petits, la moyenne étant de deux à trois jeunes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Acomys_cahirinus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acomys_cahirinus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>L'espèce et l'homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa popularité en captivité comme animal de compagnie augmente étant donné ses qualités comparativement aux hamsters qui ne peuvent vivre ensemble dans la même cage et aux souris domestiques qui se reproduisent à un rythme effréné. De plus, son intelligence serait de loin supérieure aux autres souris ou hamsters.
 </t>
